--- a/kho/DCTH.xlsx
+++ b/kho/DCTH.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\strongway_dungcu\kho\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Công Ty TNHH Công Nghiệp Strong Way Việt Nam</t>
   </si>
   <si>
-    <t>BẢNG LIỆT KÊ DỤNG CỤ DƯỠNG RÃNH</t>
-  </si>
-  <si>
     <t>TÊN DỤNG CỤ</t>
   </si>
   <si>
@@ -108,17 +100,29 @@
   </si>
   <si>
     <t>Dụng cụ kiểm tra cự li 32.5</t>
+  </si>
+  <si>
+    <t>Đang chờ sử dụng</t>
+  </si>
+  <si>
+    <t>Chờ báo phế</t>
+  </si>
+  <si>
+    <t>Đã báo phế</t>
+  </si>
+  <si>
+    <t>BẢNG LIỆT KÊ DỤNG CỤ TỔNG HỢP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +188,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -199,8 +204,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,14 +235,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -260,28 +264,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -291,15 +273,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,42 +311,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
@@ -397,6 +354,34 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -574,34 +559,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -782,18 +739,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table17" displayName="Table17" ref="A4:F34" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A4:F34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table17" displayName="Table17" ref="A4:F19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A4:F19"/>
   <sortState ref="A5:F123">
     <sortCondition ref="D4:D123"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="TÊN DỤNG CỤ" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="STT" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="3" name="MÃ DỤNG CỤ" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="6" name="HIỆN TRẠNG " dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="7" name="SỐ LƯỢNG" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="4" name="GHI CHÚ" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="TÊN DỤNG CỤ" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" name="STT" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="MÃ DỤNG CỤ" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="HIỆN TRẠNG " dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="SỐ LƯỢNG" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="4" name="GHI CHÚ" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1054,7 +1011,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1062,470 +1019,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="2"/>
-    <col min="8" max="8" width="22.1796875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="33.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="22.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <v>209</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <v>209</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18">
+        <v>209</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <v>209</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="10">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8">
         <v>11</v>
       </c>
-      <c r="B6" s="10">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="H6"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8">
         <v>12</v>
       </c>
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="C16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="C17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="8">
         <v>14</v>
       </c>
-      <c r="B10" s="10">
+      <c r="C18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
-        <v>209</v>
-      </c>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12">
-        <v>209</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="12">
-        <v>208</v>
-      </c>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="10">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20">
-        <v>209</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="10">
-        <v>10</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="10">
-        <v>11</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="D18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="10">
-        <v>12</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="10">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10">
-        <v>16</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10">
-        <v>17</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10">
-        <v>18</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="10">
-        <v>19</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="10">
-        <v>20</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10">
-        <v>21</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10">
-        <v>22</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="10">
-        <v>23</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="10">
-        <v>24</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="10">
-        <v>25</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="10">
-        <v>26</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10">
-        <v>27</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="10">
-        <v>28</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10">
-        <v>29</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27">
-        <v>30</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="C19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations xWindow="1438" yWindow="783" count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Street Address in this cell" sqref="A2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modify Company Name in this cell. Enter company address, phone, fax,  email &amp; website in cells B2 to G3. Enter Billing details in cells B4 to G7" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Item number in this column under this heading" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="B5:B34"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="E5:E7 C5:C34"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Unit Price in this column under this heading" sqref="D5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="E5:E7 C5:C19"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="B5:B19"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Unit Price in this column under this heading" sqref="D5:D19">
+      <formula1>$H$5:$H$7</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" tooltip="Chuyển đến trang"/>

--- a/kho/DCTH.xlsx
+++ b/kho/DCTH.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\strongway_dungcu\kho\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Công Ty TNHH Công Nghiệp Strong Way Việt Nam</t>
   </si>
@@ -112,17 +117,62 @@
   </si>
   <si>
     <t>BẢNG LIỆT KÊ DỤNG CỤ TỔNG HỢP</t>
+  </si>
+  <si>
+    <t>Dụng cụ kiểm tra R6</t>
+  </si>
+  <si>
+    <t>Y115</t>
+  </si>
+  <si>
+    <t>Dụng cụ kiểm R25.05</t>
+  </si>
+  <si>
+    <t>Y192</t>
+  </si>
+  <si>
+    <t>Dụng cụ kiểm tra cự li phay thô 22.38</t>
+  </si>
+  <si>
+    <t>Y120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dụng cụ góc 15 độ </t>
+  </si>
+  <si>
+    <t>Y113</t>
+  </si>
+  <si>
+    <t>Dụng cụ kiểm tra độ sâu khoan lỗ Φ 3</t>
+  </si>
+  <si>
+    <t>Y114</t>
+  </si>
+  <si>
+    <t>Y119</t>
+  </si>
+  <si>
+    <t>Dụng cụ tổng hợp 30N31</t>
+  </si>
+  <si>
+    <t>Y148</t>
+  </si>
+  <si>
+    <t>Dụng cụ tổng hợp 30C18</t>
+  </si>
+  <si>
+    <t>Y142</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +259,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -273,7 +328,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,6 +382,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -354,6 +421,62 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -559,62 +682,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -739,18 +806,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table17" displayName="Table17" ref="A4:F19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A4:F19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table17" displayName="Table17" ref="A4:F28" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A4:F28"/>
   <sortState ref="A5:F123">
     <sortCondition ref="D4:D123"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="TÊN DỤNG CỤ" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="STT" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="MÃ DỤNG CỤ" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="HIỆN TRẠNG " dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="7" name="SỐ LƯỢNG" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="4" name="GHI CHÚ" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="TÊN DỤNG CỤ" dataDxfId="0" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="STT" dataDxfId="1" totalsRowDxfId="10"/>
+    <tableColumn id="3" name="MÃ DỤNG CỤ" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="HIỆN TRẠNG " dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="SỐ LƯỢNG" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="4" name="GHI CHÚ" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1011,7 +1078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1019,26 +1086,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1"/>
-    <col min="8" max="8" width="22.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="33.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="22.1796875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1115,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>30</v>
       </c>
@@ -1058,7 +1125,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -1067,7 +1134,7 @@
       <c r="F3" s="21"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1088,7 +1155,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +1195,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1229,7 @@
       <c r="F8" s="13"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
@@ -1177,7 +1244,7 @@
       <c r="F9" s="13"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
@@ -1194,7 +1261,7 @@
       </c>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1215,7 +1282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
@@ -1234,7 +1301,7 @@
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -1253,122 +1320,287 @@
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
+    <row r="14" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="10">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
+      <c r="C14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
+        <v>209</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="B15" s="8">
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24">
+        <v>209</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8">
         <v>12</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24">
+        <v>209</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B17" s="8">
         <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B18" s="8">
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24">
+        <v>208</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24">
+        <v>208</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="8">
+        <v>16</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24">
+        <v>208</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>17</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="10">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8">
+        <v>20</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="8">
+        <v>21</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>22</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>23</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8">
+        <v>24</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
   </mergeCells>
-  <dataValidations xWindow="1438" yWindow="783" count="6">
+  <dataValidations xWindow="826" yWindow="589" count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Street Address in this cell" sqref="A2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modify Company Name in this cell. Enter company address, phone, fax,  email &amp; website in cells B2 to G3. Enter Billing details in cells B4 to G7" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Item number in this column under this heading" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="E5:E7 C5:C19"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="B5:B19"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Unit Price in this column under this heading" sqref="D5:D19">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="E5:E7 C5:C28"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="B5:B28"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Unit Price in this column under this heading" sqref="D5:D28">
       <formula1>$H$5:$H$7</formula1>
     </dataValidation>
   </dataValidations>
